--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB307.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB307.xlsx
@@ -509,28 +509,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
-        <v>71.58632659912109</v>
+        <v>71.58631896972656</v>
       </c>
       <c r="G2" t="n">
-        <v>1.096632331609726e-07</v>
+        <v>-4.48198989033699e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>2.980232238769531e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08632659912109375</v>
+        <v>0.0863189697265625</v>
       </c>
       <c r="J2" t="n">
-        <v>1.096632331609726e-07</v>
+        <v>-4.48198989033699e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>0.0003960759786423296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08632659912116855</v>
+        <v>0.08631987842227357</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F3" t="n">
-        <v>-71.58632659912109</v>
+        <v>-71.58631896972656</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.095468178391457e-07</v>
+        <v>4.423782229423523e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08632659912109375</v>
+        <v>-0.0863189697265625</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.095468178391457e-07</v>
+        <v>4.423782229423523e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0003960461763199419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08632659912116326</v>
+        <v>0.08631987828553173</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
-        <v>318.4664001464844</v>
+        <v>318.4662780761719</v>
       </c>
       <c r="G4" t="n">
-        <v>390.2783203125</v>
+        <v>390.2781372070312</v>
       </c>
       <c r="H4" t="n">
-        <v>115.4920501708984</v>
+        <v>115.4920272827148</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.033599853515625</v>
+        <v>-3.033721923828125</v>
       </c>
       <c r="J4" t="n">
-        <v>4.428955078125</v>
+        <v>4.42877197265625</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.396621704101562</v>
+        <v>-3.396247863769531</v>
       </c>
       <c r="L4" t="n">
-        <v>6.352590822339579</v>
+        <v>6.352321579474709</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
-        <v>-327.5458374023438</v>
+        <v>-327.5456848144531</v>
       </c>
       <c r="G5" t="n">
-        <v>390.4199829101562</v>
+        <v>390.4197387695312</v>
       </c>
       <c r="H5" t="n">
-        <v>116.1202697753906</v>
+        <v>116.120231628418</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.04583740234375</v>
+        <v>-6.045684814453125</v>
       </c>
       <c r="J5" t="n">
-        <v>4.57061767578125</v>
+        <v>4.57037353515625</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.768402099609375</v>
+        <v>-2.768043518066406</v>
       </c>
       <c r="L5" t="n">
-        <v>8.068875139625362</v>
+        <v>8.068499491508641</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>327.8733520507812</v>
+        <v>327.8734741210938</v>
       </c>
       <c r="G6" t="n">
-        <v>-389.3247375488281</v>
+        <v>-389.3250122070312</v>
       </c>
       <c r="H6" t="n">
-        <v>115.4021224975586</v>
+        <v>115.4021759033203</v>
       </c>
       <c r="I6" t="n">
-        <v>6.37335205078125</v>
+        <v>6.37347412109375</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.475372314453125</v>
+        <v>-3.47564697265625</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.486549377441406</v>
+        <v>-3.486099243164062</v>
       </c>
       <c r="L6" t="n">
-        <v>8.053189160115506</v>
+        <v>8.053209433758404</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
-        <v>-319.3451843261719</v>
+        <v>-319.3450012207031</v>
       </c>
       <c r="G7" t="n">
-        <v>-392.5595703125</v>
+        <v>-392.5592346191406</v>
       </c>
       <c r="H7" t="n">
-        <v>115.7499465942383</v>
+        <v>115.7499008178711</v>
       </c>
       <c r="I7" t="n">
-        <v>2.154815673828125</v>
+        <v>2.154998779296875</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.710205078125</v>
+        <v>-6.709869384765625</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.138725280761719</v>
+        <v>-3.138374328613281</v>
       </c>
       <c r="L7" t="n">
-        <v>7.715029433953096</v>
+        <v>7.714645832822458</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
         <v>176.5486907958984</v>
       </c>
       <c r="G8" t="n">
-        <v>1.454917669296265</v>
+        <v>1.454944252967834</v>
       </c>
       <c r="H8" t="n">
-        <v>121.3077239990234</v>
+        <v>121.307746887207</v>
       </c>
       <c r="I8" t="n">
         <v>3.280120849609375</v>
       </c>
       <c r="J8" t="n">
-        <v>1.454917669296265</v>
+        <v>1.454944252967834</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.771377563476562</v>
+        <v>-3.770957946777344</v>
       </c>
       <c r="L8" t="n">
-        <v>5.205695624867729</v>
+        <v>5.205399062862468</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
         <v>-176.6955871582031</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.735987901687622</v>
+        <v>-1.736018896102905</v>
       </c>
       <c r="H9" t="n">
-        <v>122.4498748779297</v>
+        <v>122.4498672485352</v>
       </c>
       <c r="I9" t="n">
         <v>-3.427017211914062</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.735987901687622</v>
+        <v>-1.736018896102905</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.629226684570312</v>
+        <v>-2.628837585449219</v>
       </c>
       <c r="L9" t="n">
-        <v>4.65520503570118</v>
+        <v>4.654996845224717</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-429.871315464814</v>
+        <v>-429.8712244205686</v>
       </c>
       <c r="G10" t="n">
-        <v>383.3326421708483</v>
+        <v>383.3324926272199</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.909347425303196</v>
+        <v>-7.909320997443928</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.602746370961995</v>
+        <v>-6.602655326716615</v>
       </c>
       <c r="J10" t="n">
-        <v>1.49603328412951</v>
+        <v>1.495883740501142</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.783370862803196</v>
+        <v>-1.782948183265461</v>
       </c>
       <c r="L10" t="n">
-        <v>7.001056124669373</v>
+        <v>7.000830647339257</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-503.2149682387073</v>
+        <v>-503.2148461615025</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3326421708483</v>
+        <v>383.3324926272199</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.909347425303196</v>
+        <v>-7.909320997443928</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.446399144855377</v>
+        <v>-8.446277067650499</v>
       </c>
       <c r="J11" t="n">
-        <v>1.49603328412951</v>
+        <v>1.495883740501142</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.783370862803196</v>
+        <v>-1.782948183265461</v>
       </c>
       <c r="L11" t="n">
-        <v>8.761289045325031</v>
+        <v>8.761059792788997</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-503.2149682387073</v>
+        <v>-503.2148461615025</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.083700517087247</v>
+        <v>-2.083690761659004</v>
       </c>
       <c r="H12" t="n">
-        <v>120.4774682284593</v>
+        <v>120.4774581693322</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.446413977425891</v>
+        <v>-8.446291900221013</v>
       </c>
       <c r="J12" t="n">
-        <v>-2.083692887692715</v>
+        <v>-2.083683132264472</v>
       </c>
       <c r="K12" t="n">
-        <v>-4.601633334040699</v>
+        <v>-4.60124666465218</v>
       </c>
       <c r="L12" t="n">
-        <v>9.841682501952153</v>
+        <v>9.84139487717038</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-425.284358442269</v>
+        <v>-425.284281945186</v>
       </c>
       <c r="G13" t="n">
-        <v>-390.4386353430185</v>
+        <v>-390.438538203389</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.937140856427703</v>
+        <v>-5.937114971814367</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.015789348416945</v>
+        <v>-2.015712851333944</v>
       </c>
       <c r="J13" t="n">
-        <v>-8.602026456299711</v>
+        <v>-8.601929316670294</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1888357060722967</v>
+        <v>0.1892578423640998</v>
       </c>
       <c r="L13" t="n">
-        <v>8.837076709860519</v>
+        <v>8.836973735330496</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-503.2149682387073</v>
+        <v>-503.2148461615025</v>
       </c>
       <c r="G14" t="n">
-        <v>-390.4386353430185</v>
+        <v>-390.438538203389</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.937140856427703</v>
+        <v>-5.937114971814367</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.446399144855377</v>
+        <v>-8.446277067650499</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.602026456299711</v>
+        <v>-8.601929316670294</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1888357060722967</v>
+        <v>0.1892578423640998</v>
       </c>
       <c r="L14" t="n">
-        <v>12.057038466928</v>
+        <v>12.0568902625597</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>502.6869373237507</v>
+        <v>502.6868610586105</v>
       </c>
       <c r="G15" t="n">
-        <v>391.1160998887622</v>
+        <v>391.1159981042497</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.50795155823329</v>
+        <v>-10.50787940809246</v>
       </c>
       <c r="I15" t="n">
-        <v>7.918368229898761</v>
+        <v>7.918291964758509</v>
       </c>
       <c r="J15" t="n">
-        <v>9.279491002043414</v>
+        <v>9.279389217530934</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.381974995733287</v>
+        <v>-4.381506593913997</v>
       </c>
       <c r="L15" t="n">
-        <v>12.96191396146829</v>
+        <v>12.96163615914674</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>421.8202901663933</v>
+        <v>421.8202224262885</v>
       </c>
       <c r="G16" t="n">
-        <v>391.1160998887622</v>
+        <v>391.1159981042497</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.50795155823329</v>
+        <v>-10.50787940809246</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.448278927458716</v>
+        <v>-1.448346667563499</v>
       </c>
       <c r="J16" t="n">
-        <v>9.279491002043414</v>
+        <v>9.279389217530934</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.381974995733287</v>
+        <v>-4.381506593913997</v>
       </c>
       <c r="L16" t="n">
-        <v>10.36379129334229</v>
+        <v>10.36351158403287</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>502.6869373237507</v>
+        <v>502.6868610586105</v>
       </c>
       <c r="G17" t="n">
-        <v>9.255529457693264</v>
+        <v>9.25552607000553</v>
       </c>
       <c r="H17" t="n">
-        <v>119.0693494823783</v>
+        <v>119.0693511043597</v>
       </c>
       <c r="I17" t="n">
-        <v>7.918383062469275</v>
+        <v>7.918306797329024</v>
       </c>
       <c r="J17" t="n">
-        <v>9.255537087087795</v>
+        <v>9.255533699400061</v>
       </c>
       <c r="K17" t="n">
-        <v>-6.009752080121729</v>
+        <v>-6.009353729624678</v>
       </c>
       <c r="L17" t="n">
-        <v>13.58244739209342</v>
+        <v>13.58222437029779</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>502.6869373237507</v>
+        <v>502.6868610586105</v>
       </c>
       <c r="G18" t="n">
-        <v>-381.0897010535917</v>
+        <v>-381.0895568217501</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.234973593499063</v>
+        <v>-3.234903379534614</v>
       </c>
       <c r="I18" t="n">
-        <v>7.918368229898761</v>
+        <v>7.918291964758509</v>
       </c>
       <c r="J18" t="n">
-        <v>0.746907833127068</v>
+        <v>0.7470520649686705</v>
       </c>
       <c r="K18" t="n">
-        <v>2.891002969000937</v>
+        <v>2.891469434643852</v>
       </c>
       <c r="L18" t="n">
-        <v>8.4626429029133</v>
+        <v>8.462743640121257</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>436.3910956073344</v>
+        <v>436.3910100070559</v>
       </c>
       <c r="G19" t="n">
-        <v>-381.0897010535917</v>
+        <v>-381.0895568217501</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.234973593499063</v>
+        <v>-3.234903379534614</v>
       </c>
       <c r="I19" t="n">
-        <v>13.1225265134824</v>
+        <v>13.12244091320383</v>
       </c>
       <c r="J19" t="n">
-        <v>0.746907833127068</v>
+        <v>0.7470520649686705</v>
       </c>
       <c r="K19" t="n">
-        <v>2.891002969000937</v>
+        <v>2.891469434643852</v>
       </c>
       <c r="L19" t="n">
-        <v>13.45795198293586</v>
+        <v>13.45797673499919</v>
       </c>
     </row>
   </sheetData>
